--- a/人行货币信贷报表与EAST对应表抽取分析/29-应收账款质押贷款报文.xlsx
+++ b/人行货币信贷报表与EAST对应表抽取分析/29-应收账款质押贷款报文.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
   <si>
     <t>序号</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>EAST对应字段</t>
+  </si>
+  <si>
+    <t>二次分析</t>
   </si>
   <si>
     <t>数据日期</t>
@@ -52,6 +55,9 @@
   </si>
   <si>
     <t>直接获取</t>
+  </si>
+  <si>
+    <t>检索EAST【信贷业务质或抵押物】所有数据的质或抵押物类型，未发现应收账款一类，需与用户确认汇丰是否有该类业务数据？</t>
   </si>
   <si>
     <t>金融机构编码</t>
@@ -221,10 +227,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -261,6 +267,126 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -269,116 +395,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,22 +409,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,19 +431,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,13 +581,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,144 +611,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -648,6 +660,32 @@
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -670,9 +708,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -702,6 +738,69 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,71 +823,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,154 +847,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,26 +1010,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="30" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1346,13 +1400,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.725" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="4.81666666666667" style="2" customWidth="1"/>
     <col min="2" max="2" width="23.025" style="2" customWidth="1"/>
@@ -1361,10 +1415,11 @@
     <col min="5" max="5" width="25.3" style="2" customWidth="1"/>
     <col min="6" max="6" width="25.6333333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="31.8166666666667" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.725" style="2"/>
+    <col min="8" max="8" width="35.7333333333333" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.725" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1383,267 +1438,295 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.25" spans="1:7">
-      <c r="A2" s="5">
+    <row r="2" s="2" customFormat="1" ht="41.25" spans="1:8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="41.25" spans="1:8">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="41.25" spans="1:8">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="95.25" spans="1:8">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="176.25" spans="1:8">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="257.25" spans="1:8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="54.75" spans="1:8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" ht="54.75" spans="1:8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="B9" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" ht="41.25" spans="1:8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" ht="41.25" spans="1:8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" ht="54.75" spans="1:8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
+      <c r="B12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="12"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="41.25" spans="1:7">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="13" ht="41.25" spans="1:8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="12"/>
     </row>
-    <row r="4" s="2" customFormat="1" ht="41.25" spans="1:7">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="95.25" spans="1:7">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="176.25" spans="1:7">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="257.25" spans="1:7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="54.75" spans="1:7">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="54.75" spans="1:7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" ht="41.25" spans="1:7">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="41.25" spans="1:7">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="54.75" spans="1:7">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="41.25" spans="1:7">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>24</v>
-      </c>
+    <row r="15" ht="43" customHeight="1" spans="1:5">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="H2:H13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
